--- a/3_Article_Screen/3_3_Meta/CodeBook_SCOLS_v0.0.2.xlsx
+++ b/3_Article_Screen/3_3_Meta/CodeBook_SCOLS_v0.0.2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\SCO\3_Article_Screen\3_3_Meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9B7BADD7-01C6-4CDA-AA90-240F7150A6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BB130-10DD-49AF-9C31-8BE0AC4D10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook_SCOLS_v0.0.1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="205">
+  <si>
+    <t>Publication Year</t>
+  </si>
   <si>
     <t>Title</t>
   </si>
@@ -49,15 +65,6 @@
     <t>10.1007/s11205-014-0849-6</t>
   </si>
   <si>
-    <t>Social comparison and life satisfaction in social media: The role of mattering and state self-esteem</t>
-  </si>
-  <si>
-    <t>International Journal of Public Health Science (IJPHS)</t>
-  </si>
-  <si>
-    <t>10.11591/ijphs.v9i3.20509</t>
-  </si>
-  <si>
     <t>Two faces of social comparison on Facebook: The interplay between social comparison orientation, emotions, and psychological well-being</t>
   </si>
   <si>
@@ -427,18 +434,12 @@
     <t>Journal</t>
   </si>
   <si>
-    <t>Sample_Size</t>
-  </si>
-  <si>
     <t>Overview</t>
   </si>
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -448,9 +449,6 @@
     <t>Huang</t>
   </si>
   <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>Park</t>
   </si>
   <si>
@@ -602,12 +600,64 @@
   </si>
   <si>
     <t>Amdurer</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Article_ID</t>
+  </si>
+  <si>
+    <t>0 = Experiment
+1 = Overview</t>
+  </si>
+  <si>
+    <t>0 = SCO
+1 = ASC
+2 = OSC</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>r2i</t>
+  </si>
+  <si>
+    <t>0 = Uncodable
+1 = Encodable</t>
+  </si>
+  <si>
+    <t>Codable</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>PCOR</t>
+  </si>
+  <si>
+    <t>COR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1091,10 +1141,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1449,1037 +1504,1856 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="17" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="M1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3">
         <v>2014</v>
       </c>
-      <c r="D2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2015</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1058</v>
+      </c>
+      <c r="O3">
+        <v>-1.61</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4">
+        <v>2014</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2016</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1058</v>
+      </c>
+      <c r="O4">
+        <v>0.25</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5">
+        <v>2014</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1030</v>
+      </c>
+      <c r="O5">
+        <v>0.54</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="R5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6">
+        <v>2014</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1030</v>
+      </c>
+      <c r="O6">
+        <v>-0.81</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7">
+        <v>2015</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>326</v>
+      </c>
+      <c r="O7">
+        <v>-1.24</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9">
+        <v>2016</v>
+      </c>
+      <c r="H9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>190</v>
+      </c>
+      <c r="O9">
+        <v>-1.87</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>331</v>
+      </c>
+      <c r="P10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+      <c r="H11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>331</v>
+      </c>
+      <c r="P11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12">
+        <v>1999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>140</v>
+      </c>
+      <c r="P12">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2006</v>
+      </c>
+      <c r="H13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2017</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>2020</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2022</v>
+      </c>
+      <c r="H16" t="s">
         <v>142</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17">
+        <v>2011</v>
+      </c>
+      <c r="H17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1058</v>
+      </c>
+      <c r="P17">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18">
+        <v>2011</v>
+      </c>
+      <c r="H18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1058</v>
+      </c>
+      <c r="P18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19">
+        <v>2013</v>
+      </c>
+      <c r="H19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20">
+        <v>2022</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21">
+        <v>2019</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>596</v>
+      </c>
+      <c r="P21">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2002</v>
+      </c>
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23">
+        <v>2017</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>363</v>
+      </c>
+      <c r="P23">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2015</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2020</v>
+      </c>
+      <c r="H25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2009</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2005</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28">
+        <v>2008</v>
+      </c>
+      <c r="H28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29">
+        <v>2005</v>
+      </c>
+      <c r="H29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30">
+        <v>2007</v>
+      </c>
+      <c r="H30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31">
+        <v>1972</v>
+      </c>
+      <c r="H31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+      <c r="H32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>196</v>
+      </c>
+      <c r="O32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q32">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="R32">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2016</v>
+      </c>
+      <c r="H33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2022</v>
+      </c>
+      <c r="H34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2013</v>
+      </c>
+      <c r="H35" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2022</v>
+      </c>
+      <c r="H36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>2018</v>
       </c>
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1999</v>
-      </c>
-      <c r="D7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8">
+      <c r="H37" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>2006</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>2020</v>
+      </c>
+      <c r="H39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+      <c r="H40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2016</v>
+      </c>
+      <c r="H41" t="s">
+        <v>172</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>2002</v>
+      </c>
+      <c r="H42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+      <c r="H43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I43" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>2010</v>
+      </c>
+      <c r="H44" t="s">
         <v>144</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I44" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+      <c r="H45" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>2009</v>
+      </c>
+      <c r="H46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>2016</v>
+      </c>
+      <c r="H47" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2002</v>
+      </c>
+      <c r="H48" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2009</v>
+      </c>
+      <c r="H49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>2008</v>
+      </c>
+      <c r="H50" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>2022</v>
+      </c>
+      <c r="H51" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1996</v>
+      </c>
+      <c r="H52" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" t="s">
+        <v>118</v>
+      </c>
+      <c r="K52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2011</v>
+      </c>
+      <c r="H53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I53" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" t="s">
+        <v>120</v>
+      </c>
+      <c r="K53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>2014</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" t="s">
+        <v>122</v>
+      </c>
+      <c r="J54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>2017</v>
-      </c>
-      <c r="D9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
+      <c r="K54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>2006</v>
+      </c>
+      <c r="H55" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>2020</v>
       </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>2022</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>2011</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>2013</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>2022</v>
-      </c>
-      <c r="D14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>2019</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>2002</v>
-      </c>
-      <c r="D16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>2015</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>2020</v>
-      </c>
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>2009</v>
-      </c>
-      <c r="D20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>2005</v>
-      </c>
-      <c r="D21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="H56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I56" t="s">
+        <v>125</v>
+      </c>
+      <c r="J56" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>50</v>
       </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>2008</v>
-      </c>
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>2005</v>
-      </c>
-      <c r="D23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>2007</v>
-      </c>
-      <c r="D24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>1972</v>
-      </c>
-      <c r="D25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>2018</v>
-      </c>
-      <c r="D26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>2016</v>
-      </c>
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>2022</v>
-      </c>
-      <c r="D28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>2013</v>
-      </c>
-      <c r="D29" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>2022</v>
-      </c>
-      <c r="D30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>2021</v>
+      </c>
+      <c r="H57" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" t="s">
+        <v>128</v>
+      </c>
+      <c r="J57" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>2018</v>
-      </c>
-      <c r="D31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>2006</v>
-      </c>
-      <c r="D32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>2020</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>2018</v>
-      </c>
-      <c r="D34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>2016</v>
-      </c>
-      <c r="D35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>2002</v>
-      </c>
-      <c r="D36" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>2018</v>
-      </c>
-      <c r="D37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>2010</v>
-      </c>
-      <c r="D38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>2018</v>
-      </c>
-      <c r="D39" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" t="s">
-        <v>103</v>
-      </c>
-      <c r="J39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>2009</v>
-      </c>
-      <c r="D40" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>2016</v>
-      </c>
-      <c r="D41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" t="s">
-        <v>68</v>
-      </c>
-      <c r="J41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>2002</v>
-      </c>
-      <c r="D42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" t="s">
-        <v>110</v>
-      </c>
-      <c r="J42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>2009</v>
-      </c>
-      <c r="D43" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>2008</v>
-      </c>
-      <c r="D44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44" t="s">
-        <v>115</v>
-      </c>
-      <c r="J44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>2022</v>
-      </c>
-      <c r="D45" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" t="s">
-        <v>118</v>
-      </c>
-      <c r="J45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>1996</v>
-      </c>
-      <c r="D46" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" t="s">
-        <v>120</v>
-      </c>
-      <c r="J46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>2011</v>
-      </c>
-      <c r="D47" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>2014</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>2006</v>
-      </c>
-      <c r="D49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>2020</v>
-      </c>
-      <c r="D50" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" t="s">
-        <v>128</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="K57" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <v>2021</v>
-      </c>
-      <c r="D51" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/3_Article_Screen/3_3_Meta/CodeBook_SCOLS_v0.0.2.xlsx
+++ b/3_Article_Screen/3_3_Meta/CodeBook_SCOLS_v0.0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YuKi_Project\SCO\3_Article_Screen\3_3_Meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BB130-10DD-49AF-9C31-8BE0AC4D10DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522C36A1-BA36-4233-AEF7-837BB5CB7A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeBook_SCOLS_v0.0.1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="240">
   <si>
     <t>Publication Year</t>
   </si>
@@ -652,6 +652,111 @@
   </si>
   <si>
     <t>COR</t>
+  </si>
+  <si>
+    <t>The Interpretation of Social Comparison and Its Relation to Life Satisfaction Among Elderly People: Does Frailty Make a Difference?</t>
+  </si>
+  <si>
+    <t>The Journals of Gerontology Series B: Psychological Sciences and Social Sciences</t>
+  </si>
+  <si>
+    <t>10.1093/geronb/59.5.P250</t>
+  </si>
+  <si>
+    <t>The Effect of Social Comparison Information on the Life Satisfaction of Frail Older Persons.</t>
+  </si>
+  <si>
+    <t>Psychology and Aging</t>
+  </si>
+  <si>
+    <t>10.1037/0882-7974.19.1.183</t>
+  </si>
+  <si>
+    <t>A tale of two marketplaces: Consumption restriction, social comparison, and life satisfaction</t>
+  </si>
+  <si>
+    <t>Marketing Letters</t>
+  </si>
+  <si>
+    <t>10.1007/s11002-012-9175-4</t>
+  </si>
+  <si>
+    <t>Income inequality is associated with stronger social comparison effects: The effect of relative income on life satisfaction.</t>
+  </si>
+  <si>
+    <t>10.1037/pspp0000059</t>
+  </si>
+  <si>
+    <t>Asymmetric Social Comparison and Life Satisfaction in Social Networks</t>
+  </si>
+  <si>
+    <t>10.1007/s10902-020-00234-8</t>
+  </si>
+  <si>
+    <t>Enhancing Satisfaction through Downward Comparison: The Role of Relational Discontent and Individual Differences in Social Comparison Orientation</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Social Psychology</t>
+  </si>
+  <si>
+    <t>10.1006/jesp.2000.1465</t>
+  </si>
+  <si>
+    <t>Who compares and despairs? The effect of social comparison orientation on social media use and its outcomes</t>
+  </si>
+  <si>
+    <t>Personality and Individual Differences</t>
+  </si>
+  <si>
+    <t>10.1016/j.paid.2015.06.026</t>
+  </si>
+  <si>
+    <t>Needs, Comparisons, and Adaptation: The Importance of Relative Income for Life Satisfaction</t>
+  </si>
+  <si>
+    <t>European Sociological Review</t>
+  </si>
+  <si>
+    <t>10.1093/esr/jcr042</t>
+  </si>
+  <si>
+    <t>The mediators of experiential purchases: Determining the impact of psychological needs satisfaction and social comparison</t>
+  </si>
+  <si>
+    <t>10.1080/17439760903270993</t>
+  </si>
+  <si>
+    <t>The effects of social comparisons on managerial career satisfaction and turnover intentions</t>
+  </si>
+  <si>
+    <t>Career Development International</t>
+  </si>
+  <si>
+    <t>10.1108/13620430910933592</t>
+  </si>
+  <si>
+    <t>Frieswijk</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Cheung &amp; Lucas</t>
+  </si>
+  <si>
+    <t>Olivos</t>
+  </si>
+  <si>
+    <t>Vogel</t>
+  </si>
+  <si>
+    <t>Wolbring</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>Eddleston</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1246,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1150,6 +1255,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1505,10 +1612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,10 +1625,10 @@
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
     <col min="5" max="5" width="4.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="14" width="13.42578125" customWidth="1"/>
     <col min="15" max="17" width="9.42578125" customWidth="1"/>
@@ -2791,6 +2899,18 @@
       <c r="B33">
         <v>0</v>
       </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>204</v>
+      </c>
       <c r="G33">
         <v>2016</v>
       </c>
@@ -2814,6 +2934,18 @@
       <c r="B34">
         <v>0</v>
       </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>204</v>
+      </c>
       <c r="G34">
         <v>2022</v>
       </c>
@@ -2837,6 +2969,18 @@
       <c r="B35">
         <v>0</v>
       </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>203</v>
+      </c>
       <c r="G35">
         <v>2013</v>
       </c>
@@ -2860,6 +3004,18 @@
       <c r="B36">
         <v>0</v>
       </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
       <c r="G36">
         <v>2022</v>
       </c>
@@ -2883,6 +3039,18 @@
       <c r="B37">
         <v>0</v>
       </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
       <c r="G37">
         <v>2018</v>
       </c>
@@ -2906,6 +3074,18 @@
       <c r="B38">
         <v>0</v>
       </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>204</v>
+      </c>
       <c r="G38">
         <v>2006</v>
       </c>
@@ -2929,6 +3109,18 @@
       <c r="B39">
         <v>0</v>
       </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>203</v>
+      </c>
       <c r="G39">
         <v>2020</v>
       </c>
@@ -2952,6 +3144,18 @@
       <c r="B40">
         <v>0</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>204</v>
+      </c>
       <c r="G40">
         <v>2018</v>
       </c>
@@ -2975,6 +3179,18 @@
       <c r="B41">
         <v>0</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>204</v>
+      </c>
       <c r="G41">
         <v>2016</v>
       </c>
@@ -2998,6 +3214,15 @@
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
       <c r="G42">
         <v>2002</v>
       </c>
@@ -3021,6 +3246,18 @@
       <c r="B43">
         <v>0</v>
       </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>203</v>
+      </c>
       <c r="G43">
         <v>2018</v>
       </c>
@@ -3044,6 +3281,18 @@
       <c r="B44">
         <v>0</v>
       </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>203</v>
+      </c>
       <c r="G44">
         <v>2010</v>
       </c>
@@ -3067,6 +3316,18 @@
       <c r="B45">
         <v>0</v>
       </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>203</v>
+      </c>
       <c r="G45">
         <v>2018</v>
       </c>
@@ -3090,6 +3351,15 @@
       <c r="B46">
         <v>0</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
       <c r="G46">
         <v>2009</v>
       </c>
@@ -3113,6 +3383,18 @@
       <c r="B47">
         <v>0</v>
       </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>203</v>
+      </c>
       <c r="G47">
         <v>2016</v>
       </c>
@@ -3136,6 +3418,18 @@
       <c r="B48">
         <v>0</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>203</v>
+      </c>
       <c r="G48">
         <v>2002</v>
       </c>
@@ -3182,6 +3476,18 @@
       <c r="B50">
         <v>0</v>
       </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>203</v>
+      </c>
       <c r="G50">
         <v>2008</v>
       </c>
@@ -3205,6 +3511,18 @@
       <c r="B51">
         <v>0</v>
       </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>204</v>
+      </c>
       <c r="G51">
         <v>2022</v>
       </c>
@@ -3228,6 +3546,18 @@
       <c r="B52">
         <v>0</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>204</v>
+      </c>
       <c r="G52">
         <v>1996</v>
       </c>
@@ -3248,6 +3578,18 @@
       <c r="B53">
         <v>0</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>203</v>
+      </c>
       <c r="G53">
         <v>2011</v>
       </c>
@@ -3271,6 +3613,18 @@
       <c r="B54">
         <v>0</v>
       </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>204</v>
+      </c>
       <c r="G54">
         <v>2014</v>
       </c>
@@ -3294,6 +3648,18 @@
       <c r="B55">
         <v>0</v>
       </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>203</v>
+      </c>
       <c r="G55">
         <v>2006</v>
       </c>
@@ -3317,6 +3683,18 @@
       <c r="B56">
         <v>0</v>
       </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>203</v>
+      </c>
       <c r="G56">
         <v>2020</v>
       </c>
@@ -3340,6 +3718,18 @@
       <c r="B57">
         <v>0</v>
       </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>203</v>
+      </c>
       <c r="G57">
         <v>2021</v>
       </c>
@@ -3355,6 +3745,394 @@
       <c r="K57" t="s">
         <v>129</v>
       </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>51</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58">
+        <v>2004</v>
+      </c>
+      <c r="H58" t="s">
+        <v>232</v>
+      </c>
+      <c r="I58" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" t="s">
+        <v>206</v>
+      </c>
+      <c r="K58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59">
+        <v>2004</v>
+      </c>
+      <c r="H59" t="s">
+        <v>232</v>
+      </c>
+      <c r="I59" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" t="s">
+        <v>209</v>
+      </c>
+      <c r="K59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>204</v>
+      </c>
+      <c r="G60">
+        <v>2012</v>
+      </c>
+      <c r="H60" t="s">
+        <v>233</v>
+      </c>
+      <c r="I60" t="s">
+        <v>211</v>
+      </c>
+      <c r="J60" t="s">
+        <v>212</v>
+      </c>
+      <c r="K60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>54</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>203</v>
+      </c>
+      <c r="G61">
+        <v>2016</v>
+      </c>
+      <c r="H61" t="s">
+        <v>234</v>
+      </c>
+      <c r="I61" t="s">
+        <v>214</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62">
+        <v>2021</v>
+      </c>
+      <c r="H62" t="s">
+        <v>235</v>
+      </c>
+      <c r="I62" t="s">
+        <v>216</v>
+      </c>
+      <c r="J62" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>56</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2001</v>
+      </c>
+      <c r="H63" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" t="s">
+        <v>218</v>
+      </c>
+      <c r="J63" t="s">
+        <v>219</v>
+      </c>
+      <c r="K63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>57</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>2015</v>
+      </c>
+      <c r="H64" t="s">
+        <v>236</v>
+      </c>
+      <c r="I64" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" t="s">
+        <v>222</v>
+      </c>
+      <c r="K64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>58</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65">
+        <v>2013</v>
+      </c>
+      <c r="H65" t="s">
+        <v>237</v>
+      </c>
+      <c r="I65" t="s">
+        <v>224</v>
+      </c>
+      <c r="J65" t="s">
+        <v>225</v>
+      </c>
+      <c r="K65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66">
+        <v>2009</v>
+      </c>
+      <c r="H66" t="s">
+        <v>238</v>
+      </c>
+      <c r="I66" t="s">
+        <v>227</v>
+      </c>
+      <c r="J66" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67">
+        <v>2009</v>
+      </c>
+      <c r="H67" t="s">
+        <v>239</v>
+      </c>
+      <c r="I67" t="s">
+        <v>229</v>
+      </c>
+      <c r="J67" t="s">
+        <v>230</v>
+      </c>
+      <c r="K67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L73" s="5"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L80" s="5"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+    </row>
+    <row r="82" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L82" s="5"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
